--- a/results/mp/logistic/corona/confidence/126/topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,46 +49,43 @@
     <t>kill</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>lower</t>
   </si>
   <si>
     <t>low</t>
@@ -100,28 +97,31 @@
     <t>stop</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>friend</t>
   </si>
   <si>
     <t>great</t>
@@ -130,91 +130,115 @@
     <t>happy</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>special</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>increase</t>
@@ -223,6 +247,9 @@
     <t>protect</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
@@ -230,6 +257,9 @@
   </si>
   <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>to</t>
@@ -590,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,16 +710,16 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C4">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D4">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.68</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -827,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6153846153846154</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6052631578947368</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8459530026109661</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>324</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>324</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>59</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5652173913043478</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.839622641509434</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5294117647058824</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.7948717948717948</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,7 +1139,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4722222222222222</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -1127,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,16 +1210,16 @@
         <v>108</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.79375</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4054054054054054</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,31 +1257,31 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>325</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="L14">
+        <v>84</v>
+      </c>
+      <c r="M14">
+        <v>84</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>22</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L14">
-        <v>45</v>
-      </c>
-      <c r="M14">
-        <v>45</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3449612403100775</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C15">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>338</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7682926829268293</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,7 +1339,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -1327,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.765625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2933333333333333</v>
+        <v>0.28</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2542372881355932</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7464788732394366</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L18">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2363636363636364</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1477,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,13 +1539,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1610738255033557</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1527,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1559,13 +1589,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1277777777777778</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1577,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>314</v>
+        <v>232</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1601,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1609,37 +1639,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07142857142857142</v>
+        <v>0.006121134020618557</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>234</v>
+        <v>3085</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.6511627906976745</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1651,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1659,37 +1689,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006731173748422381</v>
+        <v>0.005889777029869584</v>
       </c>
       <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
         <v>16</v>
       </c>
-      <c r="D23">
-        <v>18</v>
-      </c>
       <c r="E23">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F23">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.6108786610878661</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L23">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1701,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,37 +1739,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005245774237419856</v>
+        <v>0.004023335345001005</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>45</v>
       </c>
       <c r="E24">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F24">
-        <v>0.6</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>5120</v>
+        <v>4951</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K24">
-        <v>0.5925925925925926</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1751,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1759,113 +1789,89 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.004513217279174726</v>
+        <v>0.003696498054474708</v>
       </c>
       <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>0.57</v>
+      </c>
+      <c r="F25">
+        <v>0.43</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>5121</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="L25">
+        <v>44</v>
+      </c>
+      <c r="M25">
+        <v>44</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26">
+        <v>0.6744186046511628</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>14</v>
-      </c>
-      <c r="D25">
-        <v>19</v>
-      </c>
-      <c r="E25">
-        <v>0.26</v>
-      </c>
-      <c r="F25">
-        <v>0.74</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>3088</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25">
-        <v>0.5911764705882353</v>
-      </c>
-      <c r="L25">
-        <v>201</v>
-      </c>
-      <c r="M25">
-        <v>201</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.003215434083601286</v>
-      </c>
-      <c r="C26">
-        <v>16</v>
-      </c>
-      <c r="D26">
-        <v>36</v>
-      </c>
-      <c r="E26">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F26">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>4960</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5627118644067797</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1877,21 +1883,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>129</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.55</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1903,21 +1909,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5454545454545454</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1929,21 +1935,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.6067796610169491</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1955,21 +1961,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5425531914893617</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M31">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1981,21 +1987,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5230769230769231</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2007,21 +2013,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.5056179775280899</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2033,21 +2039,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2059,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2085,21 +2091,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.4242424242424243</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2111,21 +2117,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.282051282051282</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2137,21 +2143,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.2465753424657534</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2163,21 +2169,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.01416666666666667</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2189,137 +2195,423 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1183</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.008176100628930818</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N40">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1577</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.007129455909943715</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N41">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>2646</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.004016064257028112</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N42">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.4399999999999999</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>4960</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.003503308680420397</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>5120</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.003012048192771084</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L45">
+        <v>14</v>
+      </c>
+      <c r="M45">
+        <v>14</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L46">
+        <v>24</v>
+      </c>
+      <c r="M46">
+        <v>24</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L47">
+        <v>22</v>
+      </c>
+      <c r="M47">
+        <v>22</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="L48">
+        <v>16</v>
+      </c>
+      <c r="M48">
+        <v>16</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49">
+        <v>0.02003338898163606</v>
+      </c>
+      <c r="L49">
+        <v>24</v>
+      </c>
+      <c r="M49">
+        <v>26</v>
+      </c>
+      <c r="N49">
+        <v>0.92</v>
+      </c>
+      <c r="O49">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>0.79</v>
+      </c>
+      <c r="O50">
+        <v>0.21</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51">
+        <v>0.008633633633633633</v>
+      </c>
+      <c r="L51">
+        <v>23</v>
+      </c>
+      <c r="M51">
+        <v>32</v>
+      </c>
+      <c r="N51">
+        <v>0.72</v>
+      </c>
+      <c r="O51">
+        <v>0.28</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K52">
+        <v>0.005644402634054563</v>
+      </c>
+      <c r="L52">
+        <v>18</v>
+      </c>
+      <c r="M52">
+        <v>30</v>
+      </c>
+      <c r="N52">
+        <v>0.6</v>
+      </c>
+      <c r="O52">
+        <v>0.4</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53">
+        <v>0.005325306783977773</v>
+      </c>
+      <c r="L53">
+        <v>23</v>
+      </c>
+      <c r="M53">
+        <v>32</v>
+      </c>
+      <c r="N53">
+        <v>0.72</v>
+      </c>
+      <c r="O53">
+        <v>0.28</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54">
+        <v>0.00502411575562701</v>
+      </c>
+      <c r="L54">
         <v>25</v>
       </c>
-      <c r="N44">
-        <v>0.52</v>
-      </c>
-      <c r="O44">
-        <v>0.48</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>4303</v>
+      <c r="M54">
+        <v>45</v>
+      </c>
+      <c r="N54">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O54">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55">
+        <v>0.004858142246404975</v>
+      </c>
+      <c r="L55">
+        <v>25</v>
+      </c>
+      <c r="M55">
+        <v>44</v>
+      </c>
+      <c r="N55">
+        <v>0.57</v>
+      </c>
+      <c r="O55">
+        <v>0.43</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>5121</v>
       </c>
     </row>
   </sheetData>
